--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/43_Karabük_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/43_Karabük_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B487E47-94DC-41E3-B0E9-3B044E91AB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD6C9F1B-0244-4F3C-BB04-26F4391BA4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" xr2:uid="{55623E43-3FA7-498D-874F-43CBFA0BC7F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" xr2:uid="{B4300BEB-9DE1-4B6E-B285-77386975AE6B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="146" r:id="rId1"/>
@@ -917,14 +917,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{2C68DC1F-DFD9-4702-B0DD-002677B0D3FE}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{87BC9E0E-93A1-4164-8F1F-1DB7B1FAB254}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{059D69A0-BC51-4AEA-AC61-163C93AB41CB}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{0EA36C55-E0A7-419C-9E7B-F12E0EA66E82}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{829E730B-9DAA-4D26-94DA-CC56C1717506}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{BE0E8626-6F0F-4359-A25A-37B214AEC33C}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{589B4BC5-143A-4839-9939-0998C3A93A3F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{969D67C5-2E4A-44F7-8B31-6B1299A9C84A}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F25E1DC9-AFF6-4BC7-A0CB-3B305641702D}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{733572EE-2CFE-460C-BACE-B5BF0D799622}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{C7874252-6E3C-477C-9F39-7F6A9A570D44}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{18893DCE-6980-486A-9F5B-DD82F585AA43}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{B9C01C36-6BC6-4E01-B08A-CD02490A75CD}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A2A02F8D-8BD2-4526-9CAF-FB72230D993C}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{8FA4B923-F71C-4615-A149-FF8ABD06C360}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{AED2AC63-CDA8-41E4-8507-633D1DD32968}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1294,7 +1294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF32B758-3649-4DD6-B625-745AD5FDA267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD343DE-894D-45AF-B7DE-D6EDD501D353}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2545,7 +2545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCDB008-DEA3-4815-B08D-76AB9E337B11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73390FB1-C2F8-41E9-B57C-966EC2CE7A93}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3800,7 +3800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9B0922-89AD-489C-9D49-A913F81B4B9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FF0FEE-68DF-4D79-B09E-2F89D266DF90}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5051,7 +5051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AD4AD0-6DED-45FC-A4D6-69E4478CAFC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA66BB4E-A088-422A-AEF4-0D770D14C2A0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6302,7 +6302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95643FD-9002-4E0D-A160-9F9B1044A1D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EAF621-7742-4E43-93ED-64465C881134}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7555,7 +7555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED84117-4909-4B88-A678-4C19BF45487D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82651273-3516-472C-A298-970AEAB2BFD6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8802,7 +8802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798CAAFC-FB67-445D-BEE6-616BB452E5D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DDC8E0-D7DD-43EC-B7F0-801E8DEC1CAB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10051,7 +10051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFAA41E-4E8D-4F28-9E5F-871FA76FF702}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A899BD97-032E-4CFE-AD9F-C4B241C241F9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11298,7 +11298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF96D17-DB53-49A6-8A30-B181CA53ABBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34F6000-40EA-49BE-87A3-43DEE3EB75FE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12551,7 +12551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1451FD59-6C85-4B9A-AB31-165A26FD2731}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999CB5A0-5A47-45D2-BE38-C79B66959845}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13798,7 +13798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A555158-2004-416D-8EF0-D4C4AB6ED772}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE9D2A1-7ABD-4C91-BE63-FBC8010F5E0A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15047,7 +15047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DE56D9-3E1B-4B8C-A4CD-9F4F856720DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A713DA-09CB-426D-AAE0-E75A55C173FA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
